--- a/Data/EC/NIT-8290039836.xlsx
+++ b/Data/EC/NIT-8290039836.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A590073E-4FBC-4B7F-ADC6-23600B781EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC1A6D9-E634-493E-A9F1-9EB8E7C0DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC677901-9974-4F2E-B9AE-07D25B734F0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DBC7E50D-9EC7-43E3-9956-04E8CF5495E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,25 +80,25 @@
     <t>HERNANDO ZAPATA BELALCAZAR</t>
   </si>
   <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20065059-077E-5C96-C2D9-1FE124368981}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11FA1DF-85C8-31B2-51E4-85D35FA9008C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664B71D8-228F-4A0C-95AF-04ACBED7FFA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD31DB7-62DC-46E8-9311-77744A8A8B4A}">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1061,10 +1061,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>29333</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1084,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1107,7 +1107,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1130,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1153,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1176,7 +1176,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1199,7 +1199,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1222,10 +1222,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F24" s="24">
-        <v>29333</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="24">
         <v>1000000</v>
